--- a/Oscillator_Calculator.xlsx
+++ b/Oscillator_Calculator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrzejmazur/Documents/CW_Tone_Generator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\CW_Practice_Tone_Generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6934A2-6BFF-4A46-B999-C475574BBF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E433DD4-6830-4018-9AE9-15C700BC3E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="500" windowWidth="24940" windowHeight="14580" xr2:uid="{D7CEBA6E-0E37-FF48-8F93-64CE66BE4799}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D7CEBA6E-0E37-FF48-8F93-64CE66BE4799}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -173,12 +173,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -273,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -313,6 +319,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -650,28 +665,32 @@
   <dimension ref="B3:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="1" max="1" width="5.375" customWidth="1"/>
+    <col min="2" max="2" width="31.375" customWidth="1"/>
+    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.625" customWidth="1"/>
+    <col min="9" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8" hidden="1" customWidth="1"/>
+    <col min="12" max="13" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -679,10 +698,10 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
@@ -691,19 +710,19 @@
       <c r="E7" s="4"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
       <c r="C8" s="1"/>
       <c r="F8" s="7"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="17" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="1"/>
       <c r="F9" s="7"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>25</v>
       </c>
@@ -715,7 +734,7 @@
       </c>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>26</v>
       </c>
@@ -730,7 +749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>27</v>
       </c>
@@ -742,7 +761,7 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="6"/>
       <c r="C13" s="8"/>
       <c r="F13" s="7"/>
@@ -756,7 +775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
       <c r="C14" s="8"/>
       <c r="F14" s="7"/>
@@ -770,13 +789,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="7"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>14</v>
       </c>
@@ -785,7 +804,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
         <v>9</v>
       </c>
@@ -797,7 +816,7 @@
       </c>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
         <v>8</v>
       </c>
@@ -816,7 +835,7 @@
         <v>1061.0329539459688</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
         <v>3</v>
       </c>
@@ -828,42 +847,42 @@
       </c>
       <c r="F19" s="7"/>
     </row>
-    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
     </row>
-    <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="16"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F23" s="7"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="11"/>
       <c r="F24" s="7"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
       <c r="C25" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F25" s="7"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
         <v>6</v>
       </c>
@@ -871,7 +890,7 @@
         <f>(C17*10^3*C19*10^-9)*1000</f>
         <v>0.48180000000000006</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D26" s="24">
         <f>((C17+C18)*10^3*C19*10^-9)*1000</f>
         <v>2.7192000000000003</v>
       </c>
@@ -880,13 +899,13 @@
       </c>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="11"/>
       <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
+      <c r="D27" s="24"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
         <v>28</v>
       </c>
@@ -894,7 +913,7 @@
         <f>(C26/1000)*(LN((C12-C11)/(C12-C10)))*1000</f>
         <v>0.20528746166079162</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="24">
         <f>(D26/1000)*(LN((C12-C11)/(C12-C10)))*1000</f>
         <v>1.1586086877293993</v>
       </c>
@@ -903,7 +922,7 @@
       </c>
       <c r="F28" s="7"/>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
         <v>29</v>
       </c>
@@ -911,7 +930,7 @@
         <f>(C26/1000)*LN(C10/C11)*1000</f>
         <v>0.16712242074312933</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="24">
         <f>(D26/1000)*LN(C10/C11)*1000</f>
         <v>0.94321147049546961</v>
       </c>
@@ -920,13 +939,13 @@
       </c>
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="11"/>
       <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
+      <c r="D30" s="24"/>
       <c r="F30" s="7"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
         <v>15</v>
       </c>
@@ -934,7 +953,7 @@
         <f>C28+C29</f>
         <v>0.37240988240392092</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="25">
         <f>D28+D29</f>
         <v>2.1018201582248688</v>
       </c>
@@ -943,7 +962,7 @@
       </c>
       <c r="F31" s="7"/>
     </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>16</v>
       </c>
@@ -951,7 +970,7 @@
         <f>(1/(C31/1000))/1000</f>
         <v>2.6852133824831914</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="25">
         <f>(1/(D31/1000))/1000</f>
         <v>0.47577809932347803</v>
       </c>
@@ -960,7 +979,7 @@
       </c>
       <c r="F32" s="7"/>
     </row>
-    <row r="33" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
